--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1269973.037774741</v>
+        <v>-1236640.336919119</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10297272.86582244</v>
+        <v>10313605.03940345</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208.3739051952621</v>
+        <v>342.1695207235032</v>
       </c>
       <c r="C2" t="n">
-        <v>295.8677351747619</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>46.65600011779201</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.53684745398505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -905,13 +905,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>362.7400670440013</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.649393962992287</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>100.176219543324</v>
+        <v>106.3421878681704</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,16 +1133,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>70.75434793228402</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,7 +1196,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>267.7357237463023</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>73.01514676193496</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>8.129390960577833</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,13 +1370,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884131</v>
       </c>
       <c r="D11" t="n">
-        <v>346.416964332437</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430648</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1591,10 +1591,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199145</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.55329631630718</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907162</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>61.08641542222794</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>266.8594808797449</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>117.8862381513848</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,10 +2293,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432402</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934462</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432507</v>
+        <v>71.53763939432295</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934483</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934483</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742935395</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.6003840628592</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1481.643967755486</v>
+        <v>524.1290644507922</v>
       </c>
       <c r="C2" t="n">
-        <v>1182.787669599161</v>
+        <v>95.54739018806053</v>
       </c>
       <c r="D2" t="n">
-        <v>754.2059953364289</v>
+        <v>63.67800940290911</v>
       </c>
       <c r="E2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4367,13 +4367,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1696.368379531855</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y2" t="n">
-        <v>1692.122659871912</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="3">
@@ -4386,19 +4386,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.0970671107308</v>
+        <v>419.5106457631153</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>246.9489342463402</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>81.07094144786291</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>81.07094144786291</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>81.07094144786291</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1652.196715480432</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1406.317269058888</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1406.317269058888</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>1119.361760929318</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W4" t="n">
-        <v>847.3353565156096</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X4" t="n">
-        <v>847.3353565156096</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y4" t="n">
-        <v>619.915685829718</v>
+        <v>419.5106457631153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.044874488545</v>
+        <v>914.1336051316615</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.942805712373</v>
+        <v>880.0315363554889</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.073424927221</v>
+        <v>848.1621555703375</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.33908412592</v>
+        <v>818.4278147690368</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>452.0237066437829</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.62587526704683</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704683</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704683</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1738.870975579374</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1984.794977393747</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2531.293763352342</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352342</v>
       </c>
       <c r="S5" t="n">
-        <v>1694.507274562243</v>
+        <v>2531.293763352342</v>
       </c>
       <c r="T5" t="n">
-        <v>1694.507274562243</v>
+        <v>2531.293763352342</v>
       </c>
       <c r="U5" t="n">
-        <v>1694.507274562243</v>
+        <v>2531.293763352342</v>
       </c>
       <c r="V5" t="n">
-        <v>1694.507274562243</v>
+        <v>2168.676813286168</v>
       </c>
       <c r="W5" t="n">
-        <v>1693.692224013681</v>
+        <v>1763.821358697201</v>
       </c>
       <c r="X5" t="n">
-        <v>1678.590164633395</v>
+        <v>1344.678895276512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.344444973453</v>
+        <v>936.3927715761653</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083436</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704683</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750442</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937167</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3833729168607</v>
+        <v>1041.024086653603</v>
       </c>
       <c r="C7" t="n">
-        <v>199.8216614000857</v>
+        <v>868.4623751368284</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>702.5843823383511</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>532.8263785890884</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>356.1193245508447</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>190.5280495766723</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704683</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704683</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317367</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.9640150028723</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>830.1738967708334</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1153.666042134241</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1595.924845291886</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2015.594094517668</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2363.100988488009</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352342</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352342</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2372.052394650338</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2372.052394650338</v>
       </c>
       <c r="U7" t="n">
-        <v>1595.995329531605</v>
+        <v>2264.636043268348</v>
       </c>
       <c r="V7" t="n">
-        <v>1309.039821402036</v>
+        <v>1977.680535138778</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.013416988327</v>
+        <v>1705.65413072507</v>
       </c>
       <c r="X7" t="n">
-        <v>791.6216623217397</v>
+        <v>1460.262376058482</v>
       </c>
       <c r="Y7" t="n">
-        <v>564.2019916358479</v>
+        <v>1232.842705372591</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>2598.591788115989</v>
       </c>
       <c r="V8" t="n">
-        <v>855.2769502042993</v>
+        <v>2235.974838049816</v>
       </c>
       <c r="W8" t="n">
-        <v>450.4214956153326</v>
+        <v>1831.119383460849</v>
       </c>
       <c r="X8" t="n">
-        <v>179.9813706190676</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1688.971924059632</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1987.035525048256</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C11" t="n">
-        <v>1548.893052231679</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1198.976926643359</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.976926643359</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>771.1094970525667</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.7116656758305</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904678</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991046</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157282</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1653.247759947042</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="M11" t="n">
-        <v>1653.247759947042</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N11" t="n">
-        <v>1653.247759947042</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>2633.427426517348</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.737301350744</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309339</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309339</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4008.236087309339</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4008.236087309339</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4008.236087309339</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3645.619137243166</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3240.763682654199</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>2821.62121923351</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2413.335095533163</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374796</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741219</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206751</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476288</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637904</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299743</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066444</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728567</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.77040200398</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991419</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380219</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.6607588231179</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>758.0990473063429</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>592.2210545078656</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>422.4630507586029</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203591</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618679</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108766</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820122</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499733</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2594.704009018968</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.270515778544</v>
+        <v>2316.271008272073</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.315007648974</v>
+        <v>2029.315500142504</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.288603235266</v>
+        <v>1757.289095728795</v>
       </c>
       <c r="X13" t="n">
-        <v>1208.896848568678</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.479377542105</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5516,49 +5516,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5671,52 +5671,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354727</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066083</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745692</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.244603858372</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1757.289095728803</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6835,16 +6835,16 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886296</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030281</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666415</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
         <v>298.0235489799775</v>
@@ -6871,16 +6871,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
         <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6892,16 +6892,16 @@
         <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825367</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
         <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.93996029864</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835851</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
@@ -6947,22 +6947,22 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
         <v>4607.41549767352</v>
@@ -6974,13 +6974,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K36" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1220.067526522551</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
         <v>1760.806465154627</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936683</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080672</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716806</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946313</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850168</v>
+        <v>293.3294123850146</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882674</v>
+        <v>169.8269454882653</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,34 +7111,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7172,28 +7172,28 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
-        <v>444.7825334645028</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1279.132825422681</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3503.526522998903</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4331.836397832299</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790893</v>
@@ -7202,16 +7202,16 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
@@ -7309,34 +7309,34 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936671</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080659</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823632</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7366,7 +7366,7 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
         <v>1677.257834230404</v>
@@ -7409,34 +7409,34 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J41" t="n">
-        <v>444.7825334645028</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1279.132825422681</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T41" t="n">
         <v>4607.415497673521</v>
@@ -7451,7 +7451,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7546,7 +7546,7 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
         <v>756.1866229080662</v>
@@ -7567,13 +7567,13 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7585,7 +7585,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7594,19 +7594,19 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
         <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7676,22 +7676,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7783,19 +7783,19 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
@@ -7825,10 +7825,10 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>248.408082640781</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>326.7597427913213</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>306.5434937270295</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525865</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9893,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>446.229598763996</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>79.86705405655545</v>
       </c>
       <c r="C2" t="n">
-        <v>137.893312913649</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>98.16066793989056</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>117.2793621066386</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>85.13372264486287</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4463752142644</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,19 +23938,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>8.789189859680789</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>52.9498562502225</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973306726</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>814157.9492148557</v>
+        <v>677642.9673166337</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>888496.4448014095</v>
+        <v>899189.0652454034</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>888496.4448014095</v>
+        <v>900967.9468590769</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762769.738229521</v>
+        <v>910166.5005183141</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>910166.500518314</v>
+        <v>910166.5005183138</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>910166.500518314</v>
+        <v>910166.5005183141</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73452.86402232188</v>
+        <v>60654.58446936357</v>
       </c>
       <c r="C2" t="n">
         <v>80422.09798356124</v>
@@ -26320,16 +26320,16 @@
         <v>80422.09798356127</v>
       </c>
       <c r="E2" t="n">
-        <v>66230.35806764454</v>
+        <v>79028.63762060284</v>
       </c>
       <c r="F2" t="n">
         <v>79028.63762060282</v>
       </c>
       <c r="G2" t="n">
+        <v>79028.63762060282</v>
+      </c>
+      <c r="H2" t="n">
         <v>79028.63762060284</v>
-      </c>
-      <c r="H2" t="n">
-        <v>79028.63762060282</v>
       </c>
       <c r="I2" t="n">
         <v>79028.63762060281</v>
@@ -26344,16 +26344,16 @@
         <v>80422.09798356135</v>
       </c>
       <c r="M2" t="n">
+        <v>80422.09798356137</v>
+      </c>
+      <c r="N2" t="n">
+        <v>80422.09798356127</v>
+      </c>
+      <c r="O2" t="n">
+        <v>80422.09798356131</v>
+      </c>
+      <c r="P2" t="n">
         <v>80422.09798356138</v>
-      </c>
-      <c r="N2" t="n">
-        <v>80422.09798356137</v>
-      </c>
-      <c r="O2" t="n">
-        <v>80422.09798356138</v>
-      </c>
-      <c r="P2" t="n">
-        <v>80422.09798356137</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246228</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106416</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725243</v>
+        <v>182355.1092210499</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471855</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338213</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143519</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978834</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341183</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173310.0976664685</v>
+        <v>124611.1870481614</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>162797.3894436016</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>56988.33653407501</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>73343.05610596605</v>
+        <v>73343.05610596607</v>
       </c>
       <c r="M4" t="n">
-        <v>81349.24995213682</v>
+        <v>81349.24995213676</v>
       </c>
       <c r="N4" t="n">
-        <v>81349.24995213682</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="O4" t="n">
-        <v>81349.24995213682</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="P4" t="n">
-        <v>81349.2499521368</v>
+        <v>81349.24995213677</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295559</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710196</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608973</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301473.3224410788</v>
+        <v>-265902.1499343</v>
       </c>
       <c r="C6" t="n">
-        <v>-178831.5164001767</v>
+        <v>-221847.7060554582</v>
       </c>
       <c r="D6" t="n">
-        <v>-178831.5164001767</v>
+        <v>-161203.3710319344</v>
       </c>
       <c r="E6" t="n">
-        <v>-224190.5370660567</v>
+        <v>-249068.632834955</v>
       </c>
       <c r="F6" t="n">
-        <v>-145829.204979241</v>
+        <v>-66713.52361390498</v>
       </c>
       <c r="G6" t="n">
-        <v>-66690.29927452248</v>
+        <v>-66713.52361390511</v>
       </c>
       <c r="H6" t="n">
-        <v>-66690.29927452249</v>
+        <v>-66713.52361390513</v>
       </c>
       <c r="I6" t="n">
-        <v>-66690.29927452251</v>
+        <v>-66713.52361390514</v>
       </c>
       <c r="J6" t="n">
-        <v>-177704.7646195127</v>
+        <v>-177727.9889588954</v>
       </c>
       <c r="K6" t="n">
-        <v>-66690.29927452251</v>
+        <v>-120381.8506772873</v>
       </c>
       <c r="L6" t="n">
-        <v>-84992.68493166326</v>
+        <v>-93772.85862210057</v>
       </c>
       <c r="M6" t="n">
-        <v>-205801.1880925486</v>
+        <v>-214020.467432517</v>
       </c>
       <c r="N6" t="n">
-        <v>-144091.966968077</v>
+        <v>-76442.76669466523</v>
       </c>
       <c r="O6" t="n">
-        <v>-76442.76669466514</v>
+        <v>-76442.76669466519</v>
       </c>
       <c r="P6" t="n">
-        <v>-76442.76669466514</v>
+        <v>-76442.7666946651</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827335</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.527583317981</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977162</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072306</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574103</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317981</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977162</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702085</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574103</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317981</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977162</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072306</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574103</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>213.6626695847966</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>325.4280873549937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>113.1121075609983</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27625,13 +27625,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>60.84868825088301</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80.16596111500907</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27822,13 +27822,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>175.4724511961017</v>
+        <v>169.3064828712553</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>185.8757317238693</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>147.2153150401801</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>65.48800580459427</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>275.956562087696</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.4716765429928e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>7.164165557090503e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>7.54122690220053e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874714</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>248.408082640781</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>326.7597427913213</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>306.5434937270295</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525865</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132075</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165075</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,19 +35884,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908388</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36604,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P34" t="n">
         <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>446.229598763996</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37950,10 +37950,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38193,7 +38193,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
